--- a/CashFlow/ISRG_cashflow.xlsx
+++ b/CashFlow/ISRG_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2488000000.0</v>
+        <v>-146100000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2531000000.0</v>
+        <v>-170100000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1861900000.0</v>
+        <v>-244100000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1083500000.0</v>
+        <v>-302600000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>353500000.0</v>
+        <v>-331700000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-360500000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-30500000.0</v>
+        <v>410000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-32300000.0</v>
+        <v>440000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>60300000.0</v>
+        <v>422200000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>87100000.0</v>
+        <v>332700000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>148000000.0</v>
+        <v>259100000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>57400000.0</v>
